--- a/BalanceSheet/BA_bal.xlsx
+++ b/BalanceSheet/BA_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-259000000.0</v>
+        <v>82668000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-2837000000.0</v>
+        <v>81715000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-4306000000.0</v>
+        <v>86961000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-3283000000.0</v>
+        <v>83745000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-1636000000.0</v>
+        <v>80020000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>76622000000.0</v>
@@ -1826,19 +1826,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-819000000.0</v>
+        <v>12410000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-2060000000.0</v>
+        <v>12928000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-122000000.0</v>
+        <v>14479000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-2151000000.0</v>
+        <v>13700000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-1030000000.0</v>
+        <v>14963000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>15553000000.0</v>
@@ -4809,7 +4809,7 @@
         <v>23400000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>18502000000.0</v>
+        <v>17272000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>13739000000.0</v>
@@ -4936,7 +4936,7 @@
         <v>38927000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>28532000000.0</v>
+        <v>27302000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>24652000000.0</v>
